--- a/data/risk_metrics_truth_v3.xlsx
+++ b/data/risk_metrics_truth_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgehly\Documents\code\sensor_tasking_CA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FB2436F-E02B-4839-AEC4-889F5373C1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0858224D-2645-425E-AB1F-BFD347A2AAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{5CECB544-17C2-403C-8381-671CF3058D67}"/>
   </bookViews>
@@ -909,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203244E7-ED0B-444E-9025-163E932100D4}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1216,25 +1216,25 @@
         <v>52373</v>
       </c>
       <c r="B12" s="1">
-        <v>92008</v>
+        <v>97007</v>
       </c>
       <c r="C12" s="1">
-        <v>0.380803775091966</v>
+        <v>120.22992640435599</v>
       </c>
       <c r="D12" s="1">
-        <v>573998.12455530802</v>
+        <v>5122.2017185532104</v>
       </c>
       <c r="E12" s="1">
-        <v>-24702.318392318699</v>
+        <v>-927.64699410601202</v>
       </c>
       <c r="F12" s="1">
-        <v>-572002.94645602105</v>
+        <v>120.40956892497999</v>
       </c>
       <c r="G12" s="1">
-        <v>-40942.297257066501</v>
+        <v>5036.0622549355803</v>
       </c>
       <c r="H12" s="1">
-        <v>1272.6261949774801</v>
+        <v>15185.3530623272</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1242,25 +1242,25 @@
         <v>52373</v>
       </c>
       <c r="B13" s="1">
-        <v>92001</v>
+        <v>97005</v>
       </c>
       <c r="C13" s="1">
-        <v>167.31512818902701</v>
+        <v>144.05788717879099</v>
       </c>
       <c r="D13" s="1">
-        <v>682870.61922456801</v>
+        <v>5258.5747282656102</v>
       </c>
       <c r="E13" s="1">
-        <v>-36636.353301855197</v>
+        <v>-428.57044438295901</v>
       </c>
       <c r="F13" s="1">
-        <v>-680983.14367165405</v>
+        <v>269.73700060597997</v>
       </c>
       <c r="G13" s="1">
-        <v>-35100.117549059898</v>
+        <v>-5234.1357927989602</v>
       </c>
       <c r="H13" s="1">
-        <v>1149.5957762800499</v>
+        <v>15169.5013124578</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1268,25 +1268,25 @@
         <v>52373</v>
       </c>
       <c r="B14" s="1">
-        <v>92009</v>
+        <v>92005</v>
       </c>
       <c r="C14" s="1">
-        <v>63.756523667606999</v>
+        <v>56.1731868159439</v>
       </c>
       <c r="D14" s="1">
-        <v>6567.05041750891</v>
+        <v>5323.2525485873002</v>
       </c>
       <c r="E14" s="1">
-        <v>-4192.4616032246304</v>
+        <v>-2629.2523231556402</v>
       </c>
       <c r="F14" s="1">
-        <v>-5053.51505560859</v>
+        <v>4628.27437138399</v>
       </c>
       <c r="G14" s="1">
-        <v>106.78236899592299</v>
+        <v>55.912971768339801</v>
       </c>
       <c r="H14" s="1">
-        <v>168.28462235377401</v>
+        <v>359.01382680380499</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1294,25 +1294,25 @@
         <v>52373</v>
       </c>
       <c r="B15" s="1">
-        <v>97007</v>
+        <v>92010</v>
       </c>
       <c r="C15" s="1">
-        <v>120.22992640435599</v>
+        <v>54.329099228282701</v>
       </c>
       <c r="D15" s="1">
-        <v>5122.2017185532104</v>
+        <v>5425.5575832691102</v>
       </c>
       <c r="E15" s="1">
-        <v>-927.64699410601202</v>
+        <v>-3484.4819906620201</v>
       </c>
       <c r="F15" s="1">
-        <v>120.40956892497999</v>
+        <v>-4158.7241613535298</v>
       </c>
       <c r="G15" s="1">
-        <v>5036.0622549355803</v>
+        <v>8.5846313520726198</v>
       </c>
       <c r="H15" s="1">
-        <v>15185.3530623272</v>
+        <v>284.26110382256701</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1320,25 +1320,25 @@
         <v>52373</v>
       </c>
       <c r="B16" s="1">
-        <v>97005</v>
+        <v>90010</v>
       </c>
       <c r="C16" s="1">
-        <v>144.05788717879099</v>
+        <v>34.7814878987272</v>
       </c>
       <c r="D16" s="1">
-        <v>5258.5747282656102</v>
+        <v>5509.8652736598797</v>
       </c>
       <c r="E16" s="1">
-        <v>-428.57044438295901</v>
+        <v>-944.82761357933396</v>
       </c>
       <c r="F16" s="1">
-        <v>269.73700060597997</v>
+        <v>-29.452322259394801</v>
       </c>
       <c r="G16" s="1">
-        <v>-5234.1357927989602</v>
+        <v>-5428.1717617642298</v>
       </c>
       <c r="H16" s="1">
-        <v>15169.5013124578</v>
+        <v>15190.116688358799</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1346,25 +1346,25 @@
         <v>52373</v>
       </c>
       <c r="B17" s="1">
-        <v>92005</v>
+        <v>98008</v>
       </c>
       <c r="C17" s="1">
-        <v>56.1731868159439</v>
+        <v>143.424933550953</v>
       </c>
       <c r="D17" s="1">
-        <v>5323.2525485873002</v>
+        <v>5546.5711680997501</v>
       </c>
       <c r="E17" s="1">
-        <v>-2629.2523231556402</v>
+        <v>1468.8613767762999</v>
       </c>
       <c r="F17" s="1">
-        <v>4628.27437138399</v>
+        <v>96.3388375610932</v>
       </c>
       <c r="G17" s="1">
-        <v>55.912971768339801</v>
+        <v>-5347.6739622931</v>
       </c>
       <c r="H17" s="1">
-        <v>359.01382680380499</v>
+        <v>15187.1446604149</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1372,25 +1372,25 @@
         <v>52373</v>
       </c>
       <c r="B18" s="1">
-        <v>92010</v>
+        <v>92007</v>
       </c>
       <c r="C18" s="1">
-        <v>54.329099228282701</v>
+        <v>140.239143642816</v>
       </c>
       <c r="D18" s="1">
-        <v>5425.5575832691102</v>
+        <v>5689.71159825221</v>
       </c>
       <c r="E18" s="1">
-        <v>-3484.4819906620201</v>
+        <v>-3280.4245718664602</v>
       </c>
       <c r="F18" s="1">
-        <v>-4158.7241613535298</v>
+        <v>-4646.3274491022103</v>
       </c>
       <c r="G18" s="1">
-        <v>8.5846313520726198</v>
+        <v>-152.55797356997101</v>
       </c>
       <c r="H18" s="1">
-        <v>284.26110382256701</v>
+        <v>621.71678365036598</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1398,25 +1398,25 @@
         <v>52373</v>
       </c>
       <c r="B19" s="1">
-        <v>90010</v>
+        <v>97002</v>
       </c>
       <c r="C19" s="1">
-        <v>34.7814878987272</v>
+        <v>123.415048793355</v>
       </c>
       <c r="D19" s="1">
-        <v>5509.8652736598797</v>
+        <v>5932.57368285755</v>
       </c>
       <c r="E19" s="1">
-        <v>-944.82761357933396</v>
+        <v>-565.68662720684495</v>
       </c>
       <c r="F19" s="1">
-        <v>-29.452322259394801</v>
+        <v>-41.306348263349797</v>
       </c>
       <c r="G19" s="1">
-        <v>-5428.1717617642298</v>
+        <v>5905.3977789753098</v>
       </c>
       <c r="H19" s="1">
-        <v>15190.116688358799</v>
+        <v>15189.687746011799</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -1424,25 +1424,25 @@
         <v>52373</v>
       </c>
       <c r="B20" s="1">
-        <v>98008</v>
+        <v>98006</v>
       </c>
       <c r="C20" s="1">
-        <v>143.424933550953</v>
+        <v>146.58585495584501</v>
       </c>
       <c r="D20" s="1">
-        <v>5546.5711680997501</v>
+        <v>6237.3545670420899</v>
       </c>
       <c r="E20" s="1">
-        <v>1468.8613767762999</v>
+        <v>-1027.2579148322</v>
       </c>
       <c r="F20" s="1">
-        <v>96.3388375610932</v>
+        <v>19.570727135330799</v>
       </c>
       <c r="G20" s="1">
-        <v>-5347.6739622931</v>
+        <v>-6152.1500435258304</v>
       </c>
       <c r="H20" s="1">
-        <v>15187.1446604149</v>
+        <v>15190.104235213799</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1450,25 +1450,25 @@
         <v>52373</v>
       </c>
       <c r="B21" s="1">
-        <v>92007</v>
+        <v>92009</v>
       </c>
       <c r="C21" s="1">
-        <v>140.239143642816</v>
+        <v>63.756523667606999</v>
       </c>
       <c r="D21" s="1">
-        <v>5689.71159825221</v>
+        <v>6567.05041750891</v>
       </c>
       <c r="E21" s="1">
-        <v>-3280.4245718664602</v>
+        <v>-4192.4616032246304</v>
       </c>
       <c r="F21" s="1">
-        <v>-4646.3274491022103</v>
+        <v>-5053.51505560859</v>
       </c>
       <c r="G21" s="1">
-        <v>-152.55797356997101</v>
+        <v>106.78236899592299</v>
       </c>
       <c r="H21" s="1">
-        <v>621.71678365036598</v>
+        <v>168.28462235377401</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -1476,25 +1476,25 @@
         <v>52373</v>
       </c>
       <c r="B22" s="1">
-        <v>97002</v>
+        <v>90006</v>
       </c>
       <c r="C22" s="1">
-        <v>123.415048793355</v>
+        <v>28.4118314750989</v>
       </c>
       <c r="D22" s="1">
-        <v>5932.57368285755</v>
+        <v>6758.1458251936101</v>
       </c>
       <c r="E22" s="1">
-        <v>-565.68662720684495</v>
+        <v>173.82672337098501</v>
       </c>
       <c r="F22" s="1">
-        <v>-41.306348263349797</v>
+        <v>-91.298783153306204</v>
       </c>
       <c r="G22" s="1">
-        <v>5905.3977789753098</v>
+        <v>-6755.2930208110702</v>
       </c>
       <c r="H22" s="1">
-        <v>15189.687746011799</v>
+        <v>15188.0693001296</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1502,25 +1502,25 @@
         <v>52373</v>
       </c>
       <c r="B23" s="1">
-        <v>98006</v>
+        <v>90004</v>
       </c>
       <c r="C23" s="1">
-        <v>146.58585495584501</v>
+        <v>26.8143531568182</v>
       </c>
       <c r="D23" s="1">
-        <v>6237.3545670420899</v>
+        <v>7028.4576708373197</v>
       </c>
       <c r="E23" s="1">
-        <v>-1027.2579148322</v>
+        <v>725.06869101152495</v>
       </c>
       <c r="F23" s="1">
-        <v>19.570727135330799</v>
+        <v>62.861798743331498</v>
       </c>
       <c r="G23" s="1">
-        <v>-6152.1500435258304</v>
+        <v>-6990.6752905799804</v>
       </c>
       <c r="H23" s="1">
-        <v>15190.104235213799</v>
+        <v>15188.5903256617</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -1528,25 +1528,25 @@
         <v>52373</v>
       </c>
       <c r="B24" s="1">
-        <v>90006</v>
+        <v>98005</v>
       </c>
       <c r="C24" s="1">
-        <v>28.4118314750989</v>
+        <v>145.000428733262</v>
       </c>
       <c r="D24" s="1">
-        <v>6758.1458251936101</v>
+        <v>7198.6848946463897</v>
       </c>
       <c r="E24" s="1">
-        <v>173.82672337098501</v>
+        <v>308.89671375045401</v>
       </c>
       <c r="F24" s="1">
-        <v>-91.298783153306204</v>
+        <v>21.575816096644601</v>
       </c>
       <c r="G24" s="1">
-        <v>-6755.2930208110702</v>
+        <v>-7192.0220742711899</v>
       </c>
       <c r="H24" s="1">
-        <v>15188.0693001296</v>
+        <v>15189.515810954201</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -1554,25 +1554,25 @@
         <v>52373</v>
       </c>
       <c r="B25" s="1">
-        <v>90004</v>
+        <v>90001</v>
       </c>
       <c r="C25" s="1">
-        <v>26.8143531568182</v>
+        <v>28.404704479575098</v>
       </c>
       <c r="D25" s="1">
-        <v>7028.4576708373197</v>
+        <v>7446.9844150582603</v>
       </c>
       <c r="E25" s="1">
-        <v>725.06869101152495</v>
+        <v>774.49069218967304</v>
       </c>
       <c r="F25" s="1">
-        <v>62.861798743331498</v>
+        <v>26.556062303607401</v>
       </c>
       <c r="G25" s="1">
-        <v>-6990.6752905799804</v>
+        <v>-7406.5535724375204</v>
       </c>
       <c r="H25" s="1">
-        <v>15188.5903256617</v>
+        <v>15189.196420336601</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -1580,25 +1580,25 @@
         <v>52373</v>
       </c>
       <c r="B26" s="1">
-        <v>98005</v>
+        <v>96006</v>
       </c>
       <c r="C26" s="1">
-        <v>145.000428733262</v>
+        <v>97.407063411109903</v>
       </c>
       <c r="D26" s="1">
-        <v>7198.6848946463897</v>
+        <v>7526.98471257852</v>
       </c>
       <c r="E26" s="1">
-        <v>308.89671375045401</v>
+        <v>-1468.0862929395601</v>
       </c>
       <c r="F26" s="1">
-        <v>21.575816096644601</v>
+        <v>24.299079132358099</v>
       </c>
       <c r="G26" s="1">
-        <v>-7192.0220742711899</v>
+        <v>7382.3865419406902</v>
       </c>
       <c r="H26" s="1">
-        <v>15189.515810954201</v>
+        <v>15191.337204183301</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -1606,25 +1606,25 @@
         <v>52373</v>
       </c>
       <c r="B27" s="1">
-        <v>90001</v>
+        <v>97004</v>
       </c>
       <c r="C27" s="1">
-        <v>28.404704479575098</v>
+        <v>128.172373518678</v>
       </c>
       <c r="D27" s="1">
-        <v>7446.9844150582603</v>
+        <v>7660.6102059804298</v>
       </c>
       <c r="E27" s="1">
-        <v>774.49069218967304</v>
+        <v>-656.12831360803204</v>
       </c>
       <c r="F27" s="1">
-        <v>26.556062303607401</v>
+        <v>142.48073262192699</v>
       </c>
       <c r="G27" s="1">
-        <v>-7406.5535724375204</v>
+        <v>-7631.1299035519596</v>
       </c>
       <c r="H27" s="1">
-        <v>15189.196420336601</v>
+        <v>15187.3861220826</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -1632,25 +1632,25 @@
         <v>52373</v>
       </c>
       <c r="B28" s="1">
-        <v>96006</v>
+        <v>97008</v>
       </c>
       <c r="C28" s="1">
-        <v>97.407063411109903</v>
+        <v>121.816674746076</v>
       </c>
       <c r="D28" s="1">
-        <v>7526.98471257852</v>
+        <v>8248.1485591377696</v>
       </c>
       <c r="E28" s="1">
-        <v>-1468.0862929395601</v>
+        <v>-566.95165255888401</v>
       </c>
       <c r="F28" s="1">
-        <v>24.299079132358099</v>
+        <v>7.1406904170698002</v>
       </c>
       <c r="G28" s="1">
-        <v>7382.3865419406902</v>
+        <v>8228.6371585948309</v>
       </c>
       <c r="H28" s="1">
-        <v>15191.337204183301</v>
+        <v>15189.677865760699</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -1658,25 +1658,25 @@
         <v>52373</v>
       </c>
       <c r="B29" s="1">
-        <v>97004</v>
+        <v>97010</v>
       </c>
       <c r="C29" s="1">
-        <v>128.172373518678</v>
+        <v>121.820073148277</v>
       </c>
       <c r="D29" s="1">
-        <v>7660.6102059804298</v>
+        <v>8322.3043264221997</v>
       </c>
       <c r="E29" s="1">
-        <v>-656.12831360803204</v>
+        <v>-307.62972647740997</v>
       </c>
       <c r="F29" s="1">
-        <v>142.48073262192699</v>
+        <v>-204.392261614463</v>
       </c>
       <c r="G29" s="1">
-        <v>-7631.1299035519596</v>
+        <v>-8314.1047056412008</v>
       </c>
       <c r="H29" s="1">
-        <v>15187.3861220826</v>
+        <v>15184.9612014596</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -1684,25 +1684,25 @@
         <v>52373</v>
       </c>
       <c r="B30" s="1">
-        <v>97008</v>
+        <v>97003</v>
       </c>
       <c r="C30" s="1">
-        <v>121.816674746076</v>
+        <v>129.75942238747999</v>
       </c>
       <c r="D30" s="1">
-        <v>8248.1485591377696</v>
+        <v>8569.4945564069403</v>
       </c>
       <c r="E30" s="1">
-        <v>-566.95165255888401</v>
+        <v>-1097.5588900395601</v>
       </c>
       <c r="F30" s="1">
-        <v>7.1406904170698002</v>
+        <v>171.805399403531</v>
       </c>
       <c r="G30" s="1">
-        <v>8228.6371585948309</v>
+        <v>-8497.1809642915796</v>
       </c>
       <c r="H30" s="1">
-        <v>15189.677865760699</v>
+        <v>15187.020954862701</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -1710,25 +1710,25 @@
         <v>52373</v>
       </c>
       <c r="B31" s="1">
-        <v>97010</v>
+        <v>90007</v>
       </c>
       <c r="C31" s="1">
-        <v>121.820073148277</v>
+        <v>33.186336017482802</v>
       </c>
       <c r="D31" s="1">
-        <v>8322.3043264221997</v>
+        <v>8688.1745982768007</v>
       </c>
       <c r="E31" s="1">
-        <v>-307.62972647740997</v>
+        <v>-739.70631850087</v>
       </c>
       <c r="F31" s="1">
-        <v>-204.392261614463</v>
+        <v>-81.488304011512398</v>
       </c>
       <c r="G31" s="1">
-        <v>-8314.1047056412008</v>
+        <v>-8656.2446862840898</v>
       </c>
       <c r="H31" s="1">
-        <v>15184.9612014596</v>
+        <v>15190.2208500734</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -1736,25 +1736,25 @@
         <v>52373</v>
       </c>
       <c r="B32" s="1">
-        <v>97003</v>
+        <v>97006</v>
       </c>
       <c r="C32" s="1">
-        <v>129.75942238747999</v>
+        <v>118.61140883750301</v>
       </c>
       <c r="D32" s="1">
-        <v>8569.4945564069403</v>
+        <v>9029.01868525387</v>
       </c>
       <c r="E32" s="1">
-        <v>-1097.5588900395601</v>
+        <v>-1845.43910312463</v>
       </c>
       <c r="F32" s="1">
-        <v>171.805399403531</v>
+        <v>46.855932499564602</v>
       </c>
       <c r="G32" s="1">
-        <v>-8497.1809642915796</v>
+        <v>8838.2881519506791</v>
       </c>
       <c r="H32" s="1">
-        <v>15187.020954862701</v>
+        <v>15190.0983290729</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -1762,25 +1762,25 @@
         <v>52373</v>
       </c>
       <c r="B33" s="1">
-        <v>90007</v>
+        <v>97009</v>
       </c>
       <c r="C33" s="1">
-        <v>33.186336017482802</v>
+        <v>126.590305665466</v>
       </c>
       <c r="D33" s="1">
-        <v>8688.1745982768007</v>
+        <v>10110.6686451593</v>
       </c>
       <c r="E33" s="1">
-        <v>-739.70631850087</v>
+        <v>-217.47578288074999</v>
       </c>
       <c r="F33" s="1">
-        <v>-81.488304011512398</v>
+        <v>127.57984177321001</v>
       </c>
       <c r="G33" s="1">
-        <v>-8656.2446862840898</v>
+        <v>-10107.5243319044</v>
       </c>
       <c r="H33" s="1">
-        <v>15190.2208500734</v>
+        <v>15189.048118025001</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -1788,25 +1788,25 @@
         <v>52373</v>
       </c>
       <c r="B34" s="1">
-        <v>97006</v>
+        <v>96004</v>
       </c>
       <c r="C34" s="1">
-        <v>118.61140883750301</v>
+        <v>100.58349070032401</v>
       </c>
       <c r="D34" s="1">
-        <v>9029.01868525387</v>
+        <v>10298.056020598</v>
       </c>
       <c r="E34" s="1">
-        <v>-1845.43910312463</v>
+        <v>-537.19376592823596</v>
       </c>
       <c r="F34" s="1">
-        <v>46.855932499564602</v>
+        <v>-24.464707868567</v>
       </c>
       <c r="G34" s="1">
-        <v>8838.2881519506791</v>
+        <v>-10284.006132791401</v>
       </c>
       <c r="H34" s="1">
-        <v>15190.0983290729</v>
+        <v>15189.3347168196</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -1814,25 +1814,25 @@
         <v>52373</v>
       </c>
       <c r="B35" s="1">
-        <v>97009</v>
+        <v>92006</v>
       </c>
       <c r="C35" s="1">
-        <v>126.590305665466</v>
+        <v>12.411123860114101</v>
       </c>
       <c r="D35" s="1">
-        <v>10110.6686451593</v>
+        <v>11095.5092502199</v>
       </c>
       <c r="E35" s="1">
-        <v>-217.47578288074999</v>
+        <v>-940.63116786069804</v>
       </c>
       <c r="F35" s="1">
-        <v>127.57984177321001</v>
+        <v>11051.399593010099</v>
       </c>
       <c r="G35" s="1">
-        <v>-10107.5243319044</v>
+        <v>303.48898395193402</v>
       </c>
       <c r="H35" s="1">
-        <v>15189.048118025001</v>
+        <v>421.79475139196597</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -1840,25 +1840,25 @@
         <v>52373</v>
       </c>
       <c r="B36" s="1">
-        <v>96004</v>
+        <v>98004</v>
       </c>
       <c r="C36" s="1">
-        <v>100.58349070032401</v>
+        <v>144.99272403703699</v>
       </c>
       <c r="D36" s="1">
-        <v>10298.056020598</v>
+        <v>11237.1068802014</v>
       </c>
       <c r="E36" s="1">
-        <v>-537.19376592823596</v>
+        <v>-856.83474969958297</v>
       </c>
       <c r="F36" s="1">
-        <v>-24.464707868567</v>
+        <v>-0.87488487456130304</v>
       </c>
       <c r="G36" s="1">
-        <v>-10284.006132791401</v>
+        <v>11204.392196069901</v>
       </c>
       <c r="H36" s="1">
-        <v>15189.3347168196</v>
+        <v>15189.989027383601</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -1866,25 +1866,25 @@
         <v>52373</v>
       </c>
       <c r="B37" s="1">
-        <v>92006</v>
+        <v>96010</v>
       </c>
       <c r="C37" s="1">
-        <v>12.411123860114101</v>
+        <v>102.174193711082</v>
       </c>
       <c r="D37" s="1">
-        <v>11095.5092502199</v>
+        <v>11247.030549212899</v>
       </c>
       <c r="E37" s="1">
-        <v>-940.63116786069804</v>
+        <v>-742.93763032737002</v>
       </c>
       <c r="F37" s="1">
-        <v>11051.399593010099</v>
+        <v>41.168659481198603</v>
       </c>
       <c r="G37" s="1">
-        <v>303.48898395193402</v>
+        <v>11222.390342250999</v>
       </c>
       <c r="H37" s="1">
-        <v>421.79475139196597</v>
+        <v>15189.395256833999</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -1892,25 +1892,25 @@
         <v>52373</v>
       </c>
       <c r="B38" s="1">
-        <v>98004</v>
+        <v>90009</v>
       </c>
       <c r="C38" s="1">
-        <v>144.99272403703699</v>
+        <v>37.967799908286999</v>
       </c>
       <c r="D38" s="1">
-        <v>11237.1068802014</v>
+        <v>11302.799781370901</v>
       </c>
       <c r="E38" s="1">
-        <v>-856.83474969958297</v>
+        <v>-866.86276065049697</v>
       </c>
       <c r="F38" s="1">
-        <v>-0.87488487456130304</v>
+        <v>-143.59680214445299</v>
       </c>
       <c r="G38" s="1">
-        <v>11204.392196069901</v>
+        <v>-11268.5940476339</v>
       </c>
       <c r="H38" s="1">
-        <v>15189.989027383601</v>
+        <v>15188.074106833799</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -1918,25 +1918,25 @@
         <v>52373</v>
       </c>
       <c r="B39" s="1">
-        <v>96010</v>
+        <v>90002</v>
       </c>
       <c r="C39" s="1">
-        <v>102.174193711082</v>
+        <v>31.592995657622801</v>
       </c>
       <c r="D39" s="1">
-        <v>11247.030549212899</v>
+        <v>12383.9654310108</v>
       </c>
       <c r="E39" s="1">
-        <v>-742.93763032737002</v>
+        <v>169.13902660945399</v>
       </c>
       <c r="F39" s="1">
-        <v>41.168659481198603</v>
+        <v>-41.855936633937901</v>
       </c>
       <c r="G39" s="1">
-        <v>11222.390342250999</v>
+        <v>-12382.739594561301</v>
       </c>
       <c r="H39" s="1">
-        <v>15189.395256833999</v>
+        <v>15189.7399973467</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -1944,25 +1944,25 @@
         <v>52373</v>
       </c>
       <c r="B40" s="1">
-        <v>90009</v>
+        <v>90008</v>
       </c>
       <c r="C40" s="1">
-        <v>37.967799908286999</v>
+        <v>47.516302820576499</v>
       </c>
       <c r="D40" s="1">
-        <v>11302.799781370901</v>
+        <v>12438.7222010606</v>
       </c>
       <c r="E40" s="1">
-        <v>-866.86276065049697</v>
+        <v>-2299.24199402366</v>
       </c>
       <c r="F40" s="1">
-        <v>-143.59680214445299</v>
+        <v>26.4725551066525</v>
       </c>
       <c r="G40" s="1">
-        <v>-11268.5940476339</v>
+        <v>-12224.3443771804</v>
       </c>
       <c r="H40" s="1">
-        <v>15188.074106833799</v>
+        <v>15190.369754805701</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -1970,25 +1970,25 @@
         <v>52373</v>
       </c>
       <c r="B41" s="1">
-        <v>90002</v>
+        <v>98007</v>
       </c>
       <c r="C41" s="1">
-        <v>31.592995657622801</v>
+        <v>55.678928453226803</v>
       </c>
       <c r="D41" s="1">
-        <v>12383.9654310108</v>
+        <v>12535.9094555627</v>
       </c>
       <c r="E41" s="1">
-        <v>169.13902660945399</v>
+        <v>12500.8538968058</v>
       </c>
       <c r="F41" s="1">
-        <v>-41.855936633937901</v>
+        <v>-185.41747479710401</v>
       </c>
       <c r="G41" s="1">
-        <v>-12382.739594561301</v>
+        <v>918.31263130917603</v>
       </c>
       <c r="H41" s="1">
-        <v>15189.7399973467</v>
+        <v>14787.1782531512</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -1996,25 +1996,25 @@
         <v>52373</v>
       </c>
       <c r="B42" s="1">
-        <v>90008</v>
+        <v>98009</v>
       </c>
       <c r="C42" s="1">
-        <v>47.516302820576499</v>
+        <v>54.088519194093003</v>
       </c>
       <c r="D42" s="1">
-        <v>12438.7222010606</v>
+        <v>12748.654693067399</v>
       </c>
       <c r="E42" s="1">
-        <v>-2299.24199402366</v>
+        <v>12436.749970654801</v>
       </c>
       <c r="F42" s="1">
-        <v>26.4725551066525</v>
+        <v>-610.40326561472796</v>
       </c>
       <c r="G42" s="1">
-        <v>-12224.3443771804</v>
+        <v>2735.48067143866</v>
       </c>
       <c r="H42" s="1">
-        <v>15190.369754805701</v>
+        <v>14772.552436333501</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -2022,25 +2022,25 @@
         <v>52373</v>
       </c>
       <c r="B43" s="1">
-        <v>98007</v>
+        <v>97001</v>
       </c>
       <c r="C43" s="1">
-        <v>55.678928453226803</v>
+        <v>128.195941142572</v>
       </c>
       <c r="D43" s="1">
-        <v>12535.9094555627</v>
+        <v>12850.225457001199</v>
       </c>
       <c r="E43" s="1">
-        <v>12500.8538968058</v>
+        <v>1678.6835342250699</v>
       </c>
       <c r="F43" s="1">
-        <v>-185.41747479710401</v>
+        <v>681.06655972950705</v>
       </c>
       <c r="G43" s="1">
-        <v>918.31263130917603</v>
+        <v>12721.8891768833</v>
       </c>
       <c r="H43" s="1">
-        <v>14787.1782531512</v>
+        <v>15166.8917266671</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -2048,25 +2048,25 @@
         <v>52373</v>
       </c>
       <c r="B44" s="1">
-        <v>98009</v>
+        <v>98002</v>
       </c>
       <c r="C44" s="1">
-        <v>54.088519194093003</v>
+        <v>58.872798143890101</v>
       </c>
       <c r="D44" s="1">
-        <v>12748.654693067399</v>
+        <v>12917.350132531799</v>
       </c>
       <c r="E44" s="1">
-        <v>12436.749970654801</v>
+        <v>12565.7065172485</v>
       </c>
       <c r="F44" s="1">
-        <v>-610.40326561472796</v>
+        <v>707.37319770010299</v>
       </c>
       <c r="G44" s="1">
-        <v>2735.48067143866</v>
+        <v>-2908.7071574798301</v>
       </c>
       <c r="H44" s="1">
-        <v>14772.552436333501</v>
+        <v>14757.4416689311</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -2074,25 +2074,25 @@
         <v>52373</v>
       </c>
       <c r="B45" s="1">
-        <v>97001</v>
+        <v>95005</v>
       </c>
       <c r="C45" s="1">
-        <v>128.195941142572</v>
+        <v>99.661050464643296</v>
       </c>
       <c r="D45" s="1">
-        <v>12850.225457001199</v>
+        <v>13011.946255516899</v>
       </c>
       <c r="E45" s="1">
-        <v>1678.6835342250699</v>
+        <v>1489.4687501805599</v>
       </c>
       <c r="F45" s="1">
-        <v>681.06655972950705</v>
+        <v>-12926.1423128775</v>
       </c>
       <c r="G45" s="1">
-        <v>12721.8891768833</v>
+        <v>84.101759397287907</v>
       </c>
       <c r="H45" s="1">
-        <v>15166.8917266671</v>
+        <v>442.48783519889201</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -2100,25 +2100,25 @@
         <v>52373</v>
       </c>
       <c r="B46" s="1">
-        <v>98002</v>
+        <v>99003</v>
       </c>
       <c r="C46" s="1">
-        <v>58.872798143890101</v>
+        <v>61.8233539327979</v>
       </c>
       <c r="D46" s="1">
-        <v>12917.350132531799</v>
+        <v>13203.503240219499</v>
       </c>
       <c r="E46" s="1">
-        <v>12565.7065172485</v>
+        <v>3223.1746377703998</v>
       </c>
       <c r="F46" s="1">
-        <v>707.37319770010299</v>
+        <v>12801.921889323599</v>
       </c>
       <c r="G46" s="1">
-        <v>-2908.7071574798301</v>
+        <v>-233.32168475381101</v>
       </c>
       <c r="H46" s="1">
-        <v>14757.4416689311</v>
+        <v>661.03025025383397</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -2126,25 +2126,25 @@
         <v>52373</v>
       </c>
       <c r="B47" s="1">
-        <v>95005</v>
+        <v>96008</v>
       </c>
       <c r="C47" s="1">
-        <v>99.661050464643296</v>
+        <v>102.182885003487</v>
       </c>
       <c r="D47" s="1">
-        <v>13011.946255516899</v>
+        <v>14101.9101330539</v>
       </c>
       <c r="E47" s="1">
-        <v>1489.4687501805599</v>
+        <v>-378.92087030209001</v>
       </c>
       <c r="F47" s="1">
-        <v>-12926.1423128775</v>
+        <v>-75.786392453078605</v>
       </c>
       <c r="G47" s="1">
-        <v>84.101759397287907</v>
+        <v>-14096.6146573387</v>
       </c>
       <c r="H47" s="1">
-        <v>442.48783519889201</v>
+        <v>15189.872323825801</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -2152,25 +2152,25 @@
         <v>52373</v>
       </c>
       <c r="B48" s="1">
-        <v>99003</v>
+        <v>91002</v>
       </c>
       <c r="C48" s="1">
-        <v>61.8233539327979</v>
+        <v>139.027112539211</v>
       </c>
       <c r="D48" s="1">
-        <v>13203.503240219499</v>
+        <v>14746.9473655203</v>
       </c>
       <c r="E48" s="1">
-        <v>3223.1746377703998</v>
+        <v>2053.6910460166901</v>
       </c>
       <c r="F48" s="1">
-        <v>12801.921889323599</v>
+        <v>-14602.4865127105</v>
       </c>
       <c r="G48" s="1">
-        <v>-233.32168475381101</v>
+        <v>-148.98770098432101</v>
       </c>
       <c r="H48" s="1">
-        <v>661.03025025383397</v>
+        <v>806.33484854582196</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
@@ -2178,25 +2178,25 @@
         <v>52373</v>
       </c>
       <c r="B49" s="1">
-        <v>96008</v>
+        <v>98003</v>
       </c>
       <c r="C49" s="1">
-        <v>102.182885003487</v>
+        <v>140.242566226919</v>
       </c>
       <c r="D49" s="1">
-        <v>14101.9101330539</v>
+        <v>14903.4660452302</v>
       </c>
       <c r="E49" s="1">
-        <v>-378.92087030209001</v>
+        <v>2988.4931922943902</v>
       </c>
       <c r="F49" s="1">
-        <v>-75.786392453078605</v>
+        <v>319.11775490242297</v>
       </c>
       <c r="G49" s="1">
-        <v>-14096.6146573387</v>
+        <v>-14597.2727747154</v>
       </c>
       <c r="H49" s="1">
-        <v>15189.872323825801</v>
+        <v>15184.2289918402</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
@@ -2204,25 +2204,25 @@
         <v>52373</v>
       </c>
       <c r="B50" s="1">
-        <v>91002</v>
+        <v>90003</v>
       </c>
       <c r="C50" s="1">
-        <v>139.027112539211</v>
+        <v>33.185383263660803</v>
       </c>
       <c r="D50" s="1">
-        <v>14746.9473655203</v>
+        <v>15469.699432402</v>
       </c>
       <c r="E50" s="1">
-        <v>2053.6910460166901</v>
+        <v>-382.57270550028699</v>
       </c>
       <c r="F50" s="1">
-        <v>-14602.4865127105</v>
+        <v>100.11417543284399</v>
       </c>
       <c r="G50" s="1">
-        <v>-148.98770098432101</v>
+        <v>15464.644056871801</v>
       </c>
       <c r="H50" s="1">
-        <v>806.33484854582196</v>
+        <v>15190.2776706188</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -2230,25 +2230,25 @@
         <v>52373</v>
       </c>
       <c r="B51" s="1">
-        <v>98003</v>
+        <v>96009</v>
       </c>
       <c r="C51" s="1">
-        <v>140.242566226919</v>
+        <v>100.582959708968</v>
       </c>
       <c r="D51" s="1">
-        <v>14903.4660452302</v>
+        <v>16005.806007921599</v>
       </c>
       <c r="E51" s="1">
-        <v>2988.4931922943902</v>
+        <v>-1341.9354223028799</v>
       </c>
       <c r="F51" s="1">
-        <v>319.11775490242297</v>
+        <v>41.468529586433498</v>
       </c>
       <c r="G51" s="1">
-        <v>-14597.2727747154</v>
+        <v>15949.3985982746</v>
       </c>
       <c r="H51" s="1">
-        <v>15184.2289918402</v>
+        <v>15190.0959697408</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -2256,25 +2256,25 @@
         <v>52373</v>
       </c>
       <c r="B52" s="1">
-        <v>90003</v>
+        <v>98001</v>
       </c>
       <c r="C52" s="1">
-        <v>33.185383263660803</v>
+        <v>62.067400497827201</v>
       </c>
       <c r="D52" s="1">
-        <v>15469.699432402</v>
+        <v>16730.7597422297</v>
       </c>
       <c r="E52" s="1">
-        <v>-382.57270550028699</v>
+        <v>11042.107622114099</v>
       </c>
       <c r="F52" s="1">
-        <v>100.11417543284399</v>
+        <v>-2618.9452819352</v>
       </c>
       <c r="G52" s="1">
-        <v>15464.644056871801</v>
+        <v>12293.5473490809</v>
       </c>
       <c r="H52" s="1">
-        <v>15190.2776706188</v>
+        <v>14826.6458904754</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
@@ -2282,25 +2282,25 @@
         <v>52373</v>
       </c>
       <c r="B53" s="1">
-        <v>96009</v>
+        <v>94004</v>
       </c>
       <c r="C53" s="1">
-        <v>100.582959708968</v>
+        <v>96.987366944054699</v>
       </c>
       <c r="D53" s="1">
-        <v>16005.806007921599</v>
+        <v>16922.475832706099</v>
       </c>
       <c r="E53" s="1">
-        <v>-1341.9354223028799</v>
+        <v>-545.89788432357</v>
       </c>
       <c r="F53" s="1">
-        <v>41.468529586433498</v>
+        <v>16913.663472313201</v>
       </c>
       <c r="G53" s="1">
-        <v>15949.3985982746</v>
+        <v>-13.1054855272282</v>
       </c>
       <c r="H53" s="1">
-        <v>15190.0959697408</v>
+        <v>719.35482700917305</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
@@ -2308,25 +2308,25 @@
         <v>52373</v>
       </c>
       <c r="B54" s="1">
-        <v>98001</v>
+        <v>96002</v>
       </c>
       <c r="C54" s="1">
-        <v>62.067400497827201</v>
+        <v>100.580789105428</v>
       </c>
       <c r="D54" s="1">
-        <v>16730.7597422297</v>
+        <v>17988.644777347199</v>
       </c>
       <c r="E54" s="1">
-        <v>11042.107622114099</v>
+        <v>-166.26283583805301</v>
       </c>
       <c r="F54" s="1">
-        <v>-2618.9452819352</v>
+        <v>-161.657266797066</v>
       </c>
       <c r="G54" s="1">
-        <v>12293.5473490809</v>
+        <v>-17987.149983337898</v>
       </c>
       <c r="H54" s="1">
-        <v>14826.6458904754</v>
+        <v>15188.2164360973</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
@@ -2334,25 +2334,25 @@
         <v>52373</v>
       </c>
       <c r="B55" s="1">
-        <v>94004</v>
+        <v>98010</v>
       </c>
       <c r="C55" s="1">
-        <v>96.987366944054699</v>
+        <v>143.41795614543801</v>
       </c>
       <c r="D55" s="1">
-        <v>16922.475832706099</v>
+        <v>18586.628596773098</v>
       </c>
       <c r="E55" s="1">
-        <v>-545.89788432357</v>
+        <v>656.55126667262005</v>
       </c>
       <c r="F55" s="1">
-        <v>16913.663472313201</v>
+        <v>52.567558489413798</v>
       </c>
       <c r="G55" s="1">
-        <v>-13.1054855272282</v>
+        <v>-18574.9546346797</v>
       </c>
       <c r="H55" s="1">
-        <v>719.35482700917305</v>
+        <v>15189.852141479199</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
@@ -2360,25 +2360,25 @@
         <v>52373</v>
       </c>
       <c r="B56" s="1">
-        <v>96002</v>
+        <v>90005</v>
       </c>
       <c r="C56" s="1">
-        <v>100.580789105428</v>
+        <v>30.001047051747602</v>
       </c>
       <c r="D56" s="1">
-        <v>17988.644777347199</v>
+        <v>18849.408493726201</v>
       </c>
       <c r="E56" s="1">
-        <v>-166.26283583805301</v>
+        <v>857.35359248532905</v>
       </c>
       <c r="F56" s="1">
-        <v>-161.657266797066</v>
+        <v>197.77210213020101</v>
       </c>
       <c r="G56" s="1">
-        <v>-17987.149983337898</v>
+        <v>18828.861664381799</v>
       </c>
       <c r="H56" s="1">
-        <v>15188.2164360973</v>
+        <v>15188.3092158974</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
@@ -2386,25 +2386,25 @@
         <v>52373</v>
       </c>
       <c r="B57" s="1">
-        <v>98010</v>
+        <v>91005</v>
       </c>
       <c r="C57" s="1">
-        <v>143.41795614543801</v>
+        <v>139.050025580392</v>
       </c>
       <c r="D57" s="1">
-        <v>18586.628596773098</v>
+        <v>19575.934435729301</v>
       </c>
       <c r="E57" s="1">
-        <v>656.55126667262005</v>
+        <v>1955.1001645265001</v>
       </c>
       <c r="F57" s="1">
-        <v>52.567558489413798</v>
+        <v>-19473.187609477201</v>
       </c>
       <c r="G57" s="1">
-        <v>-18574.9546346797</v>
+        <v>-435.61072616131497</v>
       </c>
       <c r="H57" s="1">
-        <v>15189.852141479199</v>
+        <v>915.44708000482296</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
@@ -2412,25 +2412,25 @@
         <v>52373</v>
       </c>
       <c r="B58" s="1">
-        <v>90005</v>
+        <v>93005</v>
       </c>
       <c r="C58" s="1">
-        <v>30.001047051747602</v>
+        <v>79.963168597519399</v>
       </c>
       <c r="D58" s="1">
-        <v>18849.408493726201</v>
+        <v>20403.376939099398</v>
       </c>
       <c r="E58" s="1">
-        <v>857.35359248532905</v>
+        <v>-471.19122547293398</v>
       </c>
       <c r="F58" s="1">
-        <v>197.77210213020101</v>
+        <v>-20391.588307436501</v>
       </c>
       <c r="G58" s="1">
-        <v>18828.861664381799</v>
+        <v>508.817892795163</v>
       </c>
       <c r="H58" s="1">
-        <v>15188.3092158974</v>
+        <v>560.11276704577597</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
@@ -2438,25 +2438,25 @@
         <v>52373</v>
       </c>
       <c r="B59" s="1">
-        <v>91005</v>
+        <v>96003</v>
       </c>
       <c r="C59" s="1">
-        <v>139.050025580392</v>
+        <v>95.814576893846194</v>
       </c>
       <c r="D59" s="1">
-        <v>19575.934435729301</v>
+        <v>22752.986932551299</v>
       </c>
       <c r="E59" s="1">
-        <v>1955.1001645265001</v>
+        <v>-370.75114298743603</v>
       </c>
       <c r="F59" s="1">
-        <v>-19473.187609477201</v>
+        <v>-110.410845328288</v>
       </c>
       <c r="G59" s="1">
-        <v>-435.61072616131497</v>
+        <v>-22749.698182350799</v>
       </c>
       <c r="H59" s="1">
-        <v>915.44708000482296</v>
+        <v>15189.6648299144</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
@@ -2464,25 +2464,25 @@
         <v>52373</v>
       </c>
       <c r="B60" s="1">
-        <v>93005</v>
+        <v>96007</v>
       </c>
       <c r="C60" s="1">
-        <v>79.963168597519399</v>
+        <v>102.17381241755299</v>
       </c>
       <c r="D60" s="1">
-        <v>20403.376939099398</v>
+        <v>23055.4247213093</v>
       </c>
       <c r="E60" s="1">
-        <v>-471.19122547293398</v>
+        <v>-1310.2355929543</v>
       </c>
       <c r="F60" s="1">
-        <v>-20391.588307436501</v>
+        <v>-32.6887831554493</v>
       </c>
       <c r="G60" s="1">
-        <v>508.817892795163</v>
+        <v>-23018.1411763498</v>
       </c>
       <c r="H60" s="1">
-        <v>560.11276704577597</v>
+        <v>15190.1002049777</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
@@ -2490,25 +2490,25 @@
         <v>52373</v>
       </c>
       <c r="B61" s="1">
-        <v>96003</v>
+        <v>96001</v>
       </c>
       <c r="C61" s="1">
-        <v>95.814576893846194</v>
+        <v>99.798412941892906</v>
       </c>
       <c r="D61" s="1">
-        <v>22752.986932551299</v>
+        <v>24843.9206511511</v>
       </c>
       <c r="E61" s="1">
-        <v>-370.75114298743603</v>
+        <v>24840.920308617999</v>
       </c>
       <c r="F61" s="1">
-        <v>-110.410845328288</v>
+        <v>-29.752882876717099</v>
       </c>
       <c r="G61" s="1">
-        <v>-22749.698182350799</v>
+        <v>-384.94974677548402</v>
       </c>
       <c r="H61" s="1">
-        <v>15189.6648299144</v>
+        <v>15165.627621814499</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
@@ -2516,25 +2516,25 @@
         <v>52373</v>
       </c>
       <c r="B62" s="1">
-        <v>96007</v>
+        <v>96005</v>
       </c>
       <c r="C62" s="1">
-        <v>102.17381241755299</v>
+        <v>102.979140775567</v>
       </c>
       <c r="D62" s="1">
-        <v>23055.4247213093</v>
+        <v>26016.954925847898</v>
       </c>
       <c r="E62" s="1">
-        <v>-1310.2355929543</v>
+        <v>25797.765878619401</v>
       </c>
       <c r="F62" s="1">
-        <v>-32.6887831554493</v>
+        <v>-77.011971107916906</v>
       </c>
       <c r="G62" s="1">
-        <v>-23018.1411763498</v>
+        <v>3369.1673217354801</v>
       </c>
       <c r="H62" s="1">
-        <v>15190.1002049777</v>
+        <v>15166.715636867901</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
@@ -2542,25 +2542,25 @@
         <v>52373</v>
       </c>
       <c r="B63" s="1">
-        <v>96001</v>
+        <v>91008</v>
       </c>
       <c r="C63" s="1">
-        <v>99.798412941892906</v>
+        <v>42.020648688276601</v>
       </c>
       <c r="D63" s="1">
-        <v>24843.9206511511</v>
+        <v>27298.9264774691</v>
       </c>
       <c r="E63" s="1">
-        <v>24840.920308617999</v>
+        <v>180.535683961454</v>
       </c>
       <c r="F63" s="1">
-        <v>-29.752882876717099</v>
+        <v>27290.5958877546</v>
       </c>
       <c r="G63" s="1">
-        <v>-384.94974677548402</v>
+        <v>-649.745935236175</v>
       </c>
       <c r="H63" s="1">
-        <v>15165.627621814499</v>
+        <v>625.09156075284704</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
@@ -2568,25 +2568,25 @@
         <v>52373</v>
       </c>
       <c r="B64" s="1">
-        <v>96005</v>
+        <v>99005</v>
       </c>
       <c r="C64" s="1">
-        <v>102.979140775567</v>
+        <v>63.4292268943124</v>
       </c>
       <c r="D64" s="1">
-        <v>26016.954925847898</v>
+        <v>28545.961705257399</v>
       </c>
       <c r="E64" s="1">
-        <v>25797.765878619401</v>
+        <v>3960.70515403535</v>
       </c>
       <c r="F64" s="1">
-        <v>-77.011971107916906</v>
+        <v>28268.647991813999</v>
       </c>
       <c r="G64" s="1">
-        <v>3369.1673217354801</v>
+        <v>261.31413228318598</v>
       </c>
       <c r="H64" s="1">
-        <v>15166.715636867901</v>
+        <v>814.26265773466002</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
@@ -2594,25 +2594,25 @@
         <v>52373</v>
       </c>
       <c r="B65" s="1">
-        <v>91008</v>
+        <v>93009</v>
       </c>
       <c r="C65" s="1">
-        <v>42.020648688276601</v>
+        <v>80.016520464850799</v>
       </c>
       <c r="D65" s="1">
-        <v>27298.9264774691</v>
+        <v>29422.7484846078</v>
       </c>
       <c r="E65" s="1">
-        <v>180.535683961454</v>
+        <v>984.97751563998304</v>
       </c>
       <c r="F65" s="1">
-        <v>27290.5958877546</v>
+        <v>-29406.239105592402</v>
       </c>
       <c r="G65" s="1">
-        <v>-649.745935236175</v>
+        <v>32.393624380364102</v>
       </c>
       <c r="H65" s="1">
-        <v>625.09156075284704</v>
+        <v>679.10772115221096</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
@@ -2620,25 +2620,25 @@
         <v>52373</v>
       </c>
       <c r="B66" s="1">
-        <v>99005</v>
+        <v>99007</v>
       </c>
       <c r="C66" s="1">
-        <v>63.4292268943124</v>
+        <v>61.818944620059597</v>
       </c>
       <c r="D66" s="1">
-        <v>28545.961705257399</v>
+        <v>37877.847859194597</v>
       </c>
       <c r="E66" s="1">
-        <v>3960.70515403535</v>
+        <v>3882.9767790604901</v>
       </c>
       <c r="F66" s="1">
-        <v>28268.647991813999</v>
+        <v>37673.969133966697</v>
       </c>
       <c r="G66" s="1">
-        <v>261.31413228318598</v>
+        <v>-570.87605528310905</v>
       </c>
       <c r="H66" s="1">
-        <v>814.26265773466002</v>
+        <v>625.05763724402095</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
@@ -2646,25 +2646,25 @@
         <v>52373</v>
       </c>
       <c r="B67" s="1">
-        <v>93009</v>
+        <v>95008</v>
       </c>
       <c r="C67" s="1">
-        <v>80.016520464850799</v>
+        <v>97.972812234726206</v>
       </c>
       <c r="D67" s="1">
-        <v>29422.7484846078</v>
+        <v>37982.723647891398</v>
       </c>
       <c r="E67" s="1">
-        <v>984.97751563998304</v>
+        <v>270.44809704472499</v>
       </c>
       <c r="F67" s="1">
-        <v>-29406.239105592402</v>
+        <v>-37969.737134127601</v>
       </c>
       <c r="G67" s="1">
-        <v>32.393624380364102</v>
+        <v>955.62309732513404</v>
       </c>
       <c r="H67" s="1">
-        <v>679.10772115221096</v>
+        <v>391.38318755790499</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
@@ -2672,25 +2672,25 @@
         <v>52373</v>
       </c>
       <c r="B68" s="1">
-        <v>99007</v>
+        <v>95006</v>
       </c>
       <c r="C68" s="1">
-        <v>61.818944620059597</v>
+        <v>98.125916116966096</v>
       </c>
       <c r="D68" s="1">
-        <v>37877.847859194597</v>
+        <v>43355.8439760982</v>
       </c>
       <c r="E68" s="1">
-        <v>3882.9767790604901</v>
+        <v>4177.5215171923301</v>
       </c>
       <c r="F68" s="1">
-        <v>37673.969133966697</v>
+        <v>-43148.155899456397</v>
       </c>
       <c r="G68" s="1">
-        <v>-570.87605528310905</v>
+        <v>717.05183171797796</v>
       </c>
       <c r="H68" s="1">
-        <v>625.05763724402095</v>
+        <v>264.18624154151098</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
@@ -2698,25 +2698,25 @@
         <v>52373</v>
       </c>
       <c r="B69" s="1">
-        <v>95008</v>
+        <v>93008</v>
       </c>
       <c r="C69" s="1">
-        <v>97.972812234726206</v>
+        <v>80.033632131020198</v>
       </c>
       <c r="D69" s="1">
-        <v>37982.723647891398</v>
+        <v>45226.515725129997</v>
       </c>
       <c r="E69" s="1">
-        <v>270.44809704472499</v>
+        <v>1446.1015047342601</v>
       </c>
       <c r="F69" s="1">
-        <v>-37969.737134127601</v>
+        <v>-45203.3333378143</v>
       </c>
       <c r="G69" s="1">
-        <v>955.62309732513404</v>
+        <v>71.904268897774699</v>
       </c>
       <c r="H69" s="1">
-        <v>391.38318755790499</v>
+        <v>661.23720196170996</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
@@ -2724,25 +2724,25 @@
         <v>52373</v>
       </c>
       <c r="B70" s="1">
-        <v>95006</v>
+        <v>94008</v>
       </c>
       <c r="C70" s="1">
-        <v>98.125916116966096</v>
+        <v>97.006216568648796</v>
       </c>
       <c r="D70" s="1">
-        <v>43355.8439760982</v>
+        <v>55455.524009293098</v>
       </c>
       <c r="E70" s="1">
-        <v>4177.5215171923301</v>
+        <v>771.08749781586801</v>
       </c>
       <c r="F70" s="1">
-        <v>-43148.155899456397</v>
+        <v>-55450.031069418299</v>
       </c>
       <c r="G70" s="1">
-        <v>717.05183171797796</v>
+        <v>120.919876523187</v>
       </c>
       <c r="H70" s="1">
-        <v>264.18624154151098</v>
+        <v>675.42347745862105</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
@@ -2750,25 +2750,25 @@
         <v>52373</v>
       </c>
       <c r="B71" s="1">
-        <v>93008</v>
+        <v>93002</v>
       </c>
       <c r="C71" s="1">
-        <v>80.033632131020198</v>
+        <v>79.935395959781204</v>
       </c>
       <c r="D71" s="1">
-        <v>45226.515725129997</v>
+        <v>56810.306311288201</v>
       </c>
       <c r="E71" s="1">
-        <v>1446.1015047342601</v>
+        <v>-1452.5926277936801</v>
       </c>
       <c r="F71" s="1">
-        <v>-45203.3333378143</v>
+        <v>56696.564464659801</v>
       </c>
       <c r="G71" s="1">
-        <v>71.904268897774699</v>
+        <v>-3286.4046836539301</v>
       </c>
       <c r="H71" s="1">
-        <v>661.23720196170996</v>
+        <v>428.52345795172897</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
@@ -2776,25 +2776,25 @@
         <v>52373</v>
       </c>
       <c r="B72" s="1">
-        <v>94008</v>
+        <v>93006</v>
       </c>
       <c r="C72" s="1">
-        <v>97.006216568648796</v>
+        <v>79.996029201679704</v>
       </c>
       <c r="D72" s="1">
-        <v>55455.524009293098</v>
+        <v>63057.6601509881</v>
       </c>
       <c r="E72" s="1">
-        <v>771.08749781586801</v>
+        <v>325.80618954728197</v>
       </c>
       <c r="F72" s="1">
-        <v>-55450.031069418299</v>
+        <v>-63053.374447592803</v>
       </c>
       <c r="G72" s="1">
-        <v>120.919876523187</v>
+        <v>659.03324348819694</v>
       </c>
       <c r="H72" s="1">
-        <v>675.42347745862105</v>
+        <v>630.06761600340997</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
@@ -2802,25 +2802,25 @@
         <v>52373</v>
       </c>
       <c r="B73" s="1">
-        <v>93002</v>
+        <v>99002</v>
       </c>
       <c r="C73" s="1">
-        <v>79.935395959781204</v>
+        <v>63.404761386017</v>
       </c>
       <c r="D73" s="1">
-        <v>56810.306311288201</v>
+        <v>67474.615336217495</v>
       </c>
       <c r="E73" s="1">
-        <v>-1452.5926277936801</v>
+        <v>1050.83701482477</v>
       </c>
       <c r="F73" s="1">
-        <v>56696.564464659801</v>
+        <v>-67466.431823984502</v>
       </c>
       <c r="G73" s="1">
-        <v>-3286.4046836539301</v>
+        <v>5.7687476556229704</v>
       </c>
       <c r="H73" s="1">
-        <v>428.52345795172897</v>
+        <v>758.19090713641003</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
@@ -2828,25 +2828,25 @@
         <v>52373</v>
       </c>
       <c r="B74" s="1">
-        <v>93006</v>
+        <v>95009</v>
       </c>
       <c r="C74" s="1">
-        <v>79.996029201679704</v>
+        <v>97.062686543464594</v>
       </c>
       <c r="D74" s="1">
-        <v>63057.6601509881</v>
+        <v>71360.220010206307</v>
       </c>
       <c r="E74" s="1">
-        <v>325.80618954728197</v>
+        <v>71262.256848166202</v>
       </c>
       <c r="F74" s="1">
-        <v>-63053.374447592803</v>
+        <v>3320.29790534221</v>
       </c>
       <c r="G74" s="1">
-        <v>659.03324348819694</v>
+        <v>1716.7907941339399</v>
       </c>
       <c r="H74" s="1">
-        <v>630.06761600340997</v>
+        <v>614.81427791853696</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
@@ -2854,25 +2854,25 @@
         <v>52373</v>
       </c>
       <c r="B75" s="1">
-        <v>99002</v>
+        <v>95002</v>
       </c>
       <c r="C75" s="1">
-        <v>63.404761386017</v>
+        <v>97.142737226254397</v>
       </c>
       <c r="D75" s="1">
-        <v>67474.615336217495</v>
+        <v>77822.858512752398</v>
       </c>
       <c r="E75" s="1">
-        <v>1050.83701482477</v>
+        <v>73999.863089772203</v>
       </c>
       <c r="F75" s="1">
-        <v>-67466.431823984502</v>
+        <v>23218.239615407099</v>
       </c>
       <c r="G75" s="1">
-        <v>5.7687476556229704</v>
+        <v>-6428.9127348551001</v>
       </c>
       <c r="H75" s="1">
-        <v>758.19090713641003</v>
+        <v>461.523239768991</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
@@ -2880,25 +2880,25 @@
         <v>52373</v>
       </c>
       <c r="B76" s="1">
-        <v>95009</v>
+        <v>94009</v>
       </c>
       <c r="C76" s="1">
-        <v>97.062686543464594</v>
+        <v>96.975979733864406</v>
       </c>
       <c r="D76" s="1">
-        <v>71360.220010206307</v>
+        <v>78232.271566669006</v>
       </c>
       <c r="E76" s="1">
-        <v>71262.256848166202</v>
+        <v>35.266675446986397</v>
       </c>
       <c r="F76" s="1">
-        <v>3320.29790534221</v>
+        <v>78220.849633141595</v>
       </c>
       <c r="G76" s="1">
-        <v>1716.7907941339399</v>
+        <v>-1336.3208492311701</v>
       </c>
       <c r="H76" s="1">
-        <v>614.81427791853696</v>
+        <v>591.58395246128896</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
@@ -2906,25 +2906,25 @@
         <v>52373</v>
       </c>
       <c r="B77" s="1">
-        <v>95002</v>
+        <v>95003</v>
       </c>
       <c r="C77" s="1">
-        <v>97.142737226254397</v>
+        <v>98.775427491333701</v>
       </c>
       <c r="D77" s="1">
-        <v>77822.858512752398</v>
+        <v>78566.449453997193</v>
       </c>
       <c r="E77" s="1">
-        <v>73999.863089772203</v>
+        <v>75614.449002327106</v>
       </c>
       <c r="F77" s="1">
-        <v>23218.239615407099</v>
+        <v>-19976.196268777199</v>
       </c>
       <c r="G77" s="1">
-        <v>-6428.9127348551001</v>
+        <v>7489.5703824233897</v>
       </c>
       <c r="H77" s="1">
-        <v>461.523239768991</v>
+        <v>467.61673525765798</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
@@ -2932,25 +2932,25 @@
         <v>52373</v>
       </c>
       <c r="B78" s="1">
-        <v>94009</v>
+        <v>95007</v>
       </c>
       <c r="C78" s="1">
-        <v>96.975979733864406</v>
+        <v>98.757432329621494</v>
       </c>
       <c r="D78" s="1">
-        <v>78232.271566669006</v>
+        <v>79171.653874645694</v>
       </c>
       <c r="E78" s="1">
-        <v>35.266675446986397</v>
+        <v>73470.518476729398</v>
       </c>
       <c r="F78" s="1">
-        <v>78220.849633141595</v>
+        <v>28633.5098362975</v>
       </c>
       <c r="G78" s="1">
-        <v>-1336.3208492311701</v>
+        <v>-7096.1825273817904</v>
       </c>
       <c r="H78" s="1">
-        <v>591.58395246128896</v>
+        <v>579.56811866470298</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
@@ -2958,25 +2958,25 @@
         <v>52373</v>
       </c>
       <c r="B79" s="1">
-        <v>95003</v>
+        <v>99009</v>
       </c>
       <c r="C79" s="1">
-        <v>98.775427491333701</v>
+        <v>63.3892665998141</v>
       </c>
       <c r="D79" s="1">
-        <v>78566.449453997193</v>
+        <v>83432.3592845284</v>
       </c>
       <c r="E79" s="1">
-        <v>75614.449002327106</v>
+        <v>-725.75437906869695</v>
       </c>
       <c r="F79" s="1">
-        <v>-19976.196268777199</v>
+        <v>83421.820560736902</v>
       </c>
       <c r="G79" s="1">
-        <v>7489.5703824233897</v>
+        <v>1109.82462403157</v>
       </c>
       <c r="H79" s="1">
-        <v>467.61673525765798</v>
+        <v>902.72326594161098</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
@@ -2984,25 +2984,25 @@
         <v>52373</v>
       </c>
       <c r="B80" s="1">
-        <v>95007</v>
+        <v>93003</v>
       </c>
       <c r="C80" s="1">
-        <v>98.757432329621494</v>
+        <v>80.001579812698793</v>
       </c>
       <c r="D80" s="1">
-        <v>79171.653874645694</v>
+        <v>87893.613943637596</v>
       </c>
       <c r="E80" s="1">
-        <v>73470.518476729398</v>
+        <v>-978.27655295941895</v>
       </c>
       <c r="F80" s="1">
-        <v>28633.5098362975</v>
+        <v>87885.042940264597</v>
       </c>
       <c r="G80" s="1">
-        <v>-7096.1825273817904</v>
+        <v>-741.33288540108299</v>
       </c>
       <c r="H80" s="1">
-        <v>579.56811866470298</v>
+        <v>666.39611694720202</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
@@ -3010,25 +3010,25 @@
         <v>52373</v>
       </c>
       <c r="B81" s="1">
-        <v>99009</v>
+        <v>95010</v>
       </c>
       <c r="C81" s="1">
-        <v>63.3892665998141</v>
+        <v>97.967331997454096</v>
       </c>
       <c r="D81" s="1">
-        <v>83432.3592845284</v>
+        <v>89880.883695779907</v>
       </c>
       <c r="E81" s="1">
-        <v>-725.75437906869695</v>
+        <v>-670.52172414240295</v>
       </c>
       <c r="F81" s="1">
-        <v>83421.820560736902</v>
+        <v>-89836.119490621801</v>
       </c>
       <c r="G81" s="1">
-        <v>1109.82462403157</v>
+        <v>2755.9552642384501</v>
       </c>
       <c r="H81" s="1">
-        <v>902.72326594161098</v>
+        <v>384.05172794220198</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
@@ -3036,25 +3036,25 @@
         <v>52373</v>
       </c>
       <c r="B82" s="1">
-        <v>93003</v>
+        <v>91004</v>
       </c>
       <c r="C82" s="1">
-        <v>80.001579812698793</v>
+        <v>42.027462238371299</v>
       </c>
       <c r="D82" s="1">
-        <v>87893.613943637596</v>
+        <v>93749.979597976999</v>
       </c>
       <c r="E82" s="1">
-        <v>-978.27655295941895</v>
+        <v>1281.6386507223799</v>
       </c>
       <c r="F82" s="1">
-        <v>87885.042940264597</v>
+        <v>93652.380604589096</v>
       </c>
       <c r="G82" s="1">
-        <v>-741.33288540108299</v>
+        <v>-4080.1573601104501</v>
       </c>
       <c r="H82" s="1">
-        <v>666.39611694720202</v>
+        <v>497.398966852412</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
@@ -3062,25 +3062,25 @@
         <v>52373</v>
       </c>
       <c r="B83" s="1">
-        <v>95010</v>
+        <v>91003</v>
       </c>
       <c r="C83" s="1">
-        <v>97.967331997454096</v>
+        <v>41.9918183125721</v>
       </c>
       <c r="D83" s="1">
-        <v>89880.883695779907</v>
+        <v>99882.864545439603</v>
       </c>
       <c r="E83" s="1">
-        <v>-670.52172414240295</v>
+        <v>-1496.5362417026899</v>
       </c>
       <c r="F83" s="1">
-        <v>-89836.119490621801</v>
+        <v>-99871.488949062899</v>
       </c>
       <c r="G83" s="1">
-        <v>2755.9552642384501</v>
+        <v>180.84296259688</v>
       </c>
       <c r="H83" s="1">
-        <v>384.05172794220198</v>
+        <v>803.808479383487</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
@@ -3088,25 +3088,25 @@
         <v>52373</v>
       </c>
       <c r="B84" s="1">
-        <v>91004</v>
+        <v>93010</v>
       </c>
       <c r="C84" s="1">
-        <v>42.027462238371299</v>
+        <v>81.612569803794202</v>
       </c>
       <c r="D84" s="1">
-        <v>93749.979597976999</v>
+        <v>100950.755405156</v>
       </c>
       <c r="E84" s="1">
-        <v>1281.6386507223799</v>
+        <v>1532.26523184746</v>
       </c>
       <c r="F84" s="1">
-        <v>93652.380604589096</v>
+        <v>-100897.33015660501</v>
       </c>
       <c r="G84" s="1">
-        <v>-4080.1573601104501</v>
+        <v>-2904.4702442878302</v>
       </c>
       <c r="H84" s="1">
-        <v>497.398966852412</v>
+        <v>915.746905041829</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
@@ -3114,25 +3114,25 @@
         <v>52373</v>
       </c>
       <c r="B85" s="1">
-        <v>91003</v>
+        <v>95001</v>
       </c>
       <c r="C85" s="1">
-        <v>41.9918183125721</v>
+        <v>97.103293884230894</v>
       </c>
       <c r="D85" s="1">
-        <v>99882.864545439603</v>
+        <v>104745.167287747</v>
       </c>
       <c r="E85" s="1">
-        <v>-1496.5362417026899</v>
+        <v>71685.434311633595</v>
       </c>
       <c r="F85" s="1">
-        <v>-99871.488949062899</v>
+        <v>73848.087341266204</v>
       </c>
       <c r="G85" s="1">
-        <v>180.84296259688</v>
+        <v>-19473.2784534969</v>
       </c>
       <c r="H85" s="1">
-        <v>803.808479383487</v>
+        <v>549.47033201524096</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
@@ -3140,25 +3140,25 @@
         <v>52373</v>
       </c>
       <c r="B86" s="1">
-        <v>93010</v>
+        <v>92004</v>
       </c>
       <c r="C86" s="1">
-        <v>81.612569803794202</v>
+        <v>116.648827545808</v>
       </c>
       <c r="D86" s="1">
-        <v>100950.755405156</v>
+        <v>110150.713846938</v>
       </c>
       <c r="E86" s="1">
-        <v>1532.26523184746</v>
+        <v>-1539.38857702574</v>
       </c>
       <c r="F86" s="1">
-        <v>-100897.33015660501</v>
+        <v>-110054.601815756</v>
       </c>
       <c r="G86" s="1">
-        <v>-2904.4702442878302</v>
+        <v>-4335.2811874477602</v>
       </c>
       <c r="H86" s="1">
-        <v>915.746905041829</v>
+        <v>638.60830784261498</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
@@ -3166,25 +3166,25 @@
         <v>52373</v>
       </c>
       <c r="B87" s="1">
-        <v>95001</v>
+        <v>95004</v>
       </c>
       <c r="C87" s="1">
-        <v>97.103293884230894</v>
+        <v>97.192854047649405</v>
       </c>
       <c r="D87" s="1">
-        <v>104745.167287747</v>
+        <v>110206.672354758</v>
       </c>
       <c r="E87" s="1">
-        <v>71685.434311633595</v>
+        <v>74745.648599942302</v>
       </c>
       <c r="F87" s="1">
-        <v>73848.087341266204</v>
+        <v>72534.424377973904</v>
       </c>
       <c r="G87" s="1">
-        <v>-19473.2784534969</v>
+        <v>-36018.827396778397</v>
       </c>
       <c r="H87" s="1">
-        <v>549.47033201524096</v>
+        <v>314.743837301604</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
@@ -3192,25 +3192,25 @@
         <v>52373</v>
       </c>
       <c r="B88" s="1">
-        <v>92004</v>
+        <v>94003</v>
       </c>
       <c r="C88" s="1">
-        <v>116.648827545808</v>
+        <v>97.047420972983005</v>
       </c>
       <c r="D88" s="1">
-        <v>110150.713846938</v>
+        <v>111854.05566457201</v>
       </c>
       <c r="E88" s="1">
-        <v>-1539.38857702574</v>
+        <v>1362.9805787445</v>
       </c>
       <c r="F88" s="1">
-        <v>-110054.601815756</v>
+        <v>111704.124013415</v>
       </c>
       <c r="G88" s="1">
-        <v>-4335.2811874477602</v>
+        <v>-5626.7869117957798</v>
       </c>
       <c r="H88" s="1">
-        <v>638.60830784261498</v>
+        <v>400.06960259444998</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
@@ -3218,25 +3218,25 @@
         <v>52373</v>
       </c>
       <c r="B89" s="1">
-        <v>95004</v>
+        <v>94006</v>
       </c>
       <c r="C89" s="1">
-        <v>97.192854047649405</v>
+        <v>96.995673963791702</v>
       </c>
       <c r="D89" s="1">
-        <v>110206.672354758</v>
+        <v>115412.78177571</v>
       </c>
       <c r="E89" s="1">
-        <v>74745.648599942302</v>
+        <v>-1080.63886202405</v>
       </c>
       <c r="F89" s="1">
-        <v>72534.424377973904</v>
+        <v>115404.99708317099</v>
       </c>
       <c r="G89" s="1">
-        <v>-36018.827396778397</v>
+        <v>-793.13623724755996</v>
       </c>
       <c r="H89" s="1">
-        <v>314.743837301604</v>
+        <v>676.85323980676196</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
@@ -3244,25 +3244,25 @@
         <v>52373</v>
       </c>
       <c r="B90" s="1">
-        <v>94003</v>
+        <v>99010</v>
       </c>
       <c r="C90" s="1">
-        <v>97.047420972983005</v>
+        <v>61.866661862830298</v>
       </c>
       <c r="D90" s="1">
-        <v>111854.05566457201</v>
+        <v>115519.711201599</v>
       </c>
       <c r="E90" s="1">
-        <v>1362.9805787445</v>
+        <v>7720.0712971603598</v>
       </c>
       <c r="F90" s="1">
-        <v>111704.124013415</v>
+        <v>115246.513002747</v>
       </c>
       <c r="G90" s="1">
-        <v>-5626.7869117957798</v>
+        <v>1856.1831739729801</v>
       </c>
       <c r="H90" s="1">
-        <v>400.06960259444998</v>
+        <v>758.11838219676599</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
@@ -3270,25 +3270,25 @@
         <v>52373</v>
       </c>
       <c r="B91" s="1">
-        <v>94006</v>
+        <v>94010</v>
       </c>
       <c r="C91" s="1">
-        <v>96.995673963791702</v>
+        <v>96.257759612467495</v>
       </c>
       <c r="D91" s="1">
-        <v>115412.78177571</v>
+        <v>120861.639442709</v>
       </c>
       <c r="E91" s="1">
-        <v>-1080.63886202405</v>
+        <v>120591.461553228</v>
       </c>
       <c r="F91" s="1">
-        <v>115404.99708317099</v>
+        <v>-7888.8363967525402</v>
       </c>
       <c r="G91" s="1">
-        <v>-793.13623724755996</v>
+        <v>-1732.49806374431</v>
       </c>
       <c r="H91" s="1">
-        <v>676.85323980676196</v>
+        <v>600.82538284314501</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
@@ -3296,25 +3296,25 @@
         <v>52373</v>
       </c>
       <c r="B92" s="1">
-        <v>99010</v>
+        <v>93004</v>
       </c>
       <c r="C92" s="1">
-        <v>61.866661862830298</v>
+        <v>79.269135207997394</v>
       </c>
       <c r="D92" s="1">
-        <v>115519.711201599</v>
+        <v>125043.79743172901</v>
       </c>
       <c r="E92" s="1">
-        <v>7720.0712971603598</v>
+        <v>120382.768334398</v>
       </c>
       <c r="F92" s="1">
-        <v>115246.513002747</v>
+        <v>-33079.513630126101</v>
       </c>
       <c r="G92" s="1">
-        <v>1856.1831739729801</v>
+        <v>7048.8397831252296</v>
       </c>
       <c r="H92" s="1">
-        <v>758.11838219676599</v>
+        <v>800.42977477277805</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
@@ -3322,25 +3322,25 @@
         <v>52373</v>
       </c>
       <c r="B93" s="1">
-        <v>94010</v>
+        <v>93001</v>
       </c>
       <c r="C93" s="1">
-        <v>96.257759612467495</v>
+        <v>79.263149255249203</v>
       </c>
       <c r="D93" s="1">
-        <v>120861.639442709</v>
+        <v>125857.252811628</v>
       </c>
       <c r="E93" s="1">
-        <v>120591.461553228</v>
+        <v>120275.418600808</v>
       </c>
       <c r="F93" s="1">
-        <v>-7888.8363967525402</v>
+        <v>-35940.401802341497</v>
       </c>
       <c r="G93" s="1">
-        <v>-1732.49806374431</v>
+        <v>9064.1758575535696</v>
       </c>
       <c r="H93" s="1">
-        <v>600.82538284314501</v>
+        <v>703.07380533796697</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
@@ -3348,25 +3348,25 @@
         <v>52373</v>
       </c>
       <c r="B94" s="1">
-        <v>93004</v>
+        <v>94002</v>
       </c>
       <c r="C94" s="1">
-        <v>79.269135207997394</v>
+        <v>97.790929001039899</v>
       </c>
       <c r="D94" s="1">
-        <v>125043.79743172901</v>
+        <v>143784.03729504001</v>
       </c>
       <c r="E94" s="1">
-        <v>120382.768334398</v>
+        <v>123660.020689376</v>
       </c>
       <c r="F94" s="1">
-        <v>-33079.513630126101</v>
+        <v>-66735.105986749695</v>
       </c>
       <c r="G94" s="1">
-        <v>7048.8397831252296</v>
+        <v>30470.876142669</v>
       </c>
       <c r="H94" s="1">
-        <v>800.42977477277805</v>
+        <v>545.22036759700495</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
@@ -3374,25 +3374,25 @@
         <v>52373</v>
       </c>
       <c r="B95" s="1">
-        <v>93001</v>
+        <v>91010</v>
       </c>
       <c r="C95" s="1">
-        <v>79.263149255249203</v>
+        <v>139.06860882964301</v>
       </c>
       <c r="D95" s="1">
-        <v>125857.252811628</v>
+        <v>147011.26274363499</v>
       </c>
       <c r="E95" s="1">
-        <v>120275.418600808</v>
+        <v>3396.6728896248001</v>
       </c>
       <c r="F95" s="1">
-        <v>-35940.401802341497</v>
+        <v>146948.32183115699</v>
       </c>
       <c r="G95" s="1">
-        <v>9064.1758575535696</v>
+        <v>2639.0713832465899</v>
       </c>
       <c r="H95" s="1">
-        <v>703.07380533796697</v>
+        <v>852.33806645993104</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
@@ -3400,25 +3400,25 @@
         <v>52373</v>
       </c>
       <c r="B96" s="1">
-        <v>94002</v>
+        <v>94001</v>
       </c>
       <c r="C96" s="1">
-        <v>97.790929001039899</v>
+        <v>96.9721549343069</v>
       </c>
       <c r="D96" s="1">
-        <v>143784.03729504001</v>
+        <v>147760.65842378401</v>
       </c>
       <c r="E96" s="1">
-        <v>123660.020689376</v>
+        <v>-2449.1696645444899</v>
       </c>
       <c r="F96" s="1">
-        <v>-66735.105986749695</v>
+        <v>147724.50619489301</v>
       </c>
       <c r="G96" s="1">
-        <v>30470.876142669</v>
+        <v>-2164.25859347293</v>
       </c>
       <c r="H96" s="1">
-        <v>545.22036759700495</v>
+        <v>649.22356205973904</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
@@ -3426,25 +3426,25 @@
         <v>52373</v>
       </c>
       <c r="B97" s="1">
-        <v>91010</v>
+        <v>91001</v>
       </c>
       <c r="C97" s="1">
-        <v>139.06860882964301</v>
+        <v>138.209752043783</v>
       </c>
       <c r="D97" s="1">
-        <v>147011.26274363499</v>
+        <v>154536.36207448301</v>
       </c>
       <c r="E97" s="1">
-        <v>3396.6728896248001</v>
+        <v>151703.987452995</v>
       </c>
       <c r="F97" s="1">
-        <v>146948.32183115699</v>
+        <v>-28372.338390291501</v>
       </c>
       <c r="G97" s="1">
-        <v>2639.0713832465899</v>
+        <v>7899.2283385164501</v>
       </c>
       <c r="H97" s="1">
-        <v>852.33806645993104</v>
+        <v>1029.8001779992701</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
@@ -3452,25 +3452,25 @@
         <v>52373</v>
       </c>
       <c r="B98" s="1">
-        <v>94001</v>
+        <v>99004</v>
       </c>
       <c r="C98" s="1">
-        <v>96.9721549343069</v>
+        <v>164.35126944975701</v>
       </c>
       <c r="D98" s="1">
-        <v>147760.65842378401</v>
+        <v>160627.282964218</v>
       </c>
       <c r="E98" s="1">
-        <v>-2449.1696645444899</v>
+        <v>151134.28767704801</v>
       </c>
       <c r="F98" s="1">
-        <v>147724.50619489301</v>
+        <v>51246.072547715099</v>
       </c>
       <c r="G98" s="1">
-        <v>-2164.25859347293</v>
+        <v>-18259.0024166898</v>
       </c>
       <c r="H98" s="1">
-        <v>649.22356205973904</v>
+        <v>928.45763861020998</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
@@ -3478,25 +3478,25 @@
         <v>52373</v>
       </c>
       <c r="B99" s="1">
-        <v>91001</v>
+        <v>91007</v>
       </c>
       <c r="C99" s="1">
-        <v>138.209752043783</v>
+        <v>138.17949744224501</v>
       </c>
       <c r="D99" s="1">
-        <v>154536.36207448301</v>
+        <v>160674.530832341</v>
       </c>
       <c r="E99" s="1">
-        <v>151703.987452995</v>
+        <v>153030.212122175</v>
       </c>
       <c r="F99" s="1">
-        <v>-28372.338390291501</v>
+        <v>44027.769603205401</v>
       </c>
       <c r="G99" s="1">
-        <v>7899.2283385164501</v>
+        <v>-21438.622619047099</v>
       </c>
       <c r="H99" s="1">
-        <v>1029.8001779992701</v>
+        <v>710.94719588354701</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
@@ -3504,25 +3504,25 @@
         <v>52373</v>
       </c>
       <c r="B100" s="1">
-        <v>99004</v>
+        <v>93007</v>
       </c>
       <c r="C100" s="1">
-        <v>164.35126944975701</v>
+        <v>79.967134303549898</v>
       </c>
       <c r="D100" s="1">
-        <v>160627.282964218</v>
+        <v>161697.651153415</v>
       </c>
       <c r="E100" s="1">
-        <v>151134.28767704801</v>
+        <v>-3703.4575240817298</v>
       </c>
       <c r="F100" s="1">
-        <v>51246.072547715099</v>
+        <v>161472.406293912</v>
       </c>
       <c r="G100" s="1">
-        <v>-18259.0024166898</v>
+        <v>-7686.143151968</v>
       </c>
       <c r="H100" s="1">
-        <v>928.45763861020998</v>
+        <v>505.89388210602698</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
@@ -3530,25 +3530,25 @@
         <v>52373</v>
       </c>
       <c r="B101" s="1">
-        <v>91007</v>
+        <v>94007</v>
       </c>
       <c r="C101" s="1">
-        <v>138.17949744224501</v>
+        <v>96.990179309944295</v>
       </c>
       <c r="D101" s="1">
-        <v>160674.530832341</v>
+        <v>163324.58421830999</v>
       </c>
       <c r="E101" s="1">
-        <v>153030.212122175</v>
+        <v>-2819.2417283405998</v>
       </c>
       <c r="F101" s="1">
-        <v>44027.769603205401</v>
+        <v>163253.19792119399</v>
       </c>
       <c r="G101" s="1">
-        <v>-21438.622619047099</v>
+        <v>-3919.8283973095799</v>
       </c>
       <c r="H101" s="1">
-        <v>710.94719588354701</v>
+        <v>600.06538707548202</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
@@ -3556,25 +3556,25 @@
         <v>52373</v>
       </c>
       <c r="B102" s="1">
-        <v>93007</v>
+        <v>99001</v>
       </c>
       <c r="C102" s="1">
-        <v>79.967134303549898</v>
+        <v>161.19277200314701</v>
       </c>
       <c r="D102" s="1">
-        <v>161697.651153415</v>
+        <v>169108.495660588</v>
       </c>
       <c r="E102" s="1">
-        <v>-3703.4575240817298</v>
+        <v>150894.34040803701</v>
       </c>
       <c r="F102" s="1">
-        <v>161472.406293912</v>
+        <v>-67022.599180871504</v>
       </c>
       <c r="G102" s="1">
-        <v>-7686.143151968</v>
+        <v>36558.8913460275</v>
       </c>
       <c r="H102" s="1">
-        <v>505.89388210602698</v>
+        <v>546.00041943304996</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
@@ -3582,25 +3582,25 @@
         <v>52373</v>
       </c>
       <c r="B103" s="1">
-        <v>94007</v>
+        <v>94005</v>
       </c>
       <c r="C103" s="1">
-        <v>96.990179309944295</v>
+        <v>96.999305805265905</v>
       </c>
       <c r="D103" s="1">
-        <v>163324.58421830999</v>
+        <v>175582.97832483501</v>
       </c>
       <c r="E103" s="1">
-        <v>-2819.2417283405998</v>
+        <v>-2393.73387945484</v>
       </c>
       <c r="F103" s="1">
-        <v>163253.19792119399</v>
+        <v>175566.18790123399</v>
       </c>
       <c r="G103" s="1">
-        <v>-3919.8283973095799</v>
+        <v>-407.40810275218303</v>
       </c>
       <c r="H103" s="1">
-        <v>600.06538707548202</v>
+        <v>724.11348717670796</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
@@ -3608,25 +3608,25 @@
         <v>52373</v>
       </c>
       <c r="B104" s="1">
-        <v>99001</v>
+        <v>99008</v>
       </c>
       <c r="C104" s="1">
-        <v>161.19277200314701</v>
+        <v>161.14922726124499</v>
       </c>
       <c r="D104" s="1">
-        <v>169108.495660588</v>
+        <v>179928.48674127201</v>
       </c>
       <c r="E104" s="1">
-        <v>150894.34040803701</v>
+        <v>149392.12837375299</v>
       </c>
       <c r="F104" s="1">
-        <v>-67022.599180871504</v>
+        <v>-87461.555468419101</v>
       </c>
       <c r="G104" s="1">
-        <v>36558.8913460275</v>
+        <v>49058.420643238103</v>
       </c>
       <c r="H104" s="1">
-        <v>546.00041943304996</v>
+        <v>595.80341184877602</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
@@ -3634,25 +3634,25 @@
         <v>52373</v>
       </c>
       <c r="B105" s="1">
-        <v>94005</v>
+        <v>99006</v>
       </c>
       <c r="C105" s="1">
-        <v>96.999305805265905</v>
+        <v>164.33968311909101</v>
       </c>
       <c r="D105" s="1">
-        <v>175582.97832483501</v>
+        <v>185079.60192966499</v>
       </c>
       <c r="E105" s="1">
-        <v>-2393.73387945484</v>
+        <v>149134.52172675999</v>
       </c>
       <c r="F105" s="1">
-        <v>175566.18790123399</v>
+        <v>-101490.48558927199</v>
       </c>
       <c r="G105" s="1">
-        <v>-407.40810275218303</v>
+        <v>41388.824755328103</v>
       </c>
       <c r="H105" s="1">
-        <v>724.11348717670796</v>
+        <v>901.77855965393496</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
@@ -3660,25 +3660,25 @@
         <v>52373</v>
       </c>
       <c r="B106" s="1">
-        <v>99008</v>
+        <v>91009</v>
       </c>
       <c r="C106" s="1">
-        <v>161.14922726124499</v>
+        <v>139.87610642820499</v>
       </c>
       <c r="D106" s="1">
-        <v>179928.48674127201</v>
+        <v>190593.337626047</v>
       </c>
       <c r="E106" s="1">
-        <v>149392.12837375299</v>
+        <v>145683.300389443</v>
       </c>
       <c r="F106" s="1">
-        <v>-87461.555468419101</v>
+        <v>-117783.928149427</v>
       </c>
       <c r="G106" s="1">
-        <v>49058.420643238103</v>
+        <v>35059.130119931397</v>
       </c>
       <c r="H106" s="1">
-        <v>595.80341184877602</v>
+        <v>1056.2391914554601</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
@@ -3686,25 +3686,25 @@
         <v>52373</v>
       </c>
       <c r="B107" s="1">
-        <v>99006</v>
+        <v>91006</v>
       </c>
       <c r="C107" s="1">
-        <v>164.33968311909101</v>
+        <v>138.18452073617101</v>
       </c>
       <c r="D107" s="1">
-        <v>185079.60192966499</v>
+        <v>191920.05702959499</v>
       </c>
       <c r="E107" s="1">
-        <v>149134.52172675999</v>
+        <v>153064.50228091801</v>
       </c>
       <c r="F107" s="1">
-        <v>-101490.48558927199</v>
+        <v>-108030.03592833399</v>
       </c>
       <c r="G107" s="1">
-        <v>41388.824755328103</v>
+        <v>41642.259413493703</v>
       </c>
       <c r="H107" s="1">
-        <v>901.77855965393496</v>
+        <v>894.77892191093599</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
@@ -3712,25 +3712,25 @@
         <v>52373</v>
       </c>
       <c r="B108" s="1">
-        <v>91009</v>
+        <v>92003</v>
       </c>
       <c r="C108" s="1">
-        <v>139.87610642820499</v>
+        <v>167.22492744422601</v>
       </c>
       <c r="D108" s="1">
-        <v>190593.337626047</v>
+        <v>286775.43669535901</v>
       </c>
       <c r="E108" s="1">
-        <v>145683.300389443</v>
+        <v>-8891.0461868508701</v>
       </c>
       <c r="F108" s="1">
-        <v>-117783.928149427</v>
+        <v>-286433.867887153</v>
       </c>
       <c r="G108" s="1">
-        <v>35059.130119931397</v>
+        <v>-10804.61552867</v>
       </c>
       <c r="H108" s="1">
-        <v>1056.2391914554601</v>
+        <v>762.38883708695698</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
@@ -3738,25 +3738,25 @@
         <v>52373</v>
       </c>
       <c r="B109" s="1">
-        <v>91006</v>
+        <v>92002</v>
       </c>
       <c r="C109" s="1">
-        <v>138.18452073617101</v>
+        <v>166.74296501523901</v>
       </c>
       <c r="D109" s="1">
-        <v>191920.05702959499</v>
+        <v>309966.853672622</v>
       </c>
       <c r="E109" s="1">
-        <v>153064.50228091801</v>
+        <v>-6251.2074423737504</v>
       </c>
       <c r="F109" s="1">
-        <v>-108030.03592833399</v>
+        <v>309595.37887916202</v>
       </c>
       <c r="G109" s="1">
-        <v>41642.259413493703</v>
+        <v>-13822.957638832801</v>
       </c>
       <c r="H109" s="1">
-        <v>894.77892191093599</v>
+        <v>715.05191821781796</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
@@ -3764,25 +3764,25 @@
         <v>52373</v>
       </c>
       <c r="B110" s="1">
-        <v>92003</v>
+        <v>92008</v>
       </c>
       <c r="C110" s="1">
-        <v>167.22492744422601</v>
+        <v>0.380803775091966</v>
       </c>
       <c r="D110" s="1">
-        <v>286775.43669535901</v>
+        <v>573998.12455530802</v>
       </c>
       <c r="E110" s="1">
-        <v>-8891.0461868508701</v>
+        <v>-24702.318392318699</v>
       </c>
       <c r="F110" s="1">
-        <v>-286433.867887153</v>
+        <v>-572002.94645602105</v>
       </c>
       <c r="G110" s="1">
-        <v>-10804.61552867</v>
+        <v>-40942.297257066501</v>
       </c>
       <c r="H110" s="1">
-        <v>762.38883708695698</v>
+        <v>1272.6261949774801</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
@@ -3790,30 +3790,30 @@
         <v>52373</v>
       </c>
       <c r="B111" s="1">
-        <v>92002</v>
+        <v>92001</v>
       </c>
       <c r="C111" s="1">
-        <v>166.74296501523901</v>
+        <v>167.31512818902701</v>
       </c>
       <c r="D111" s="1">
-        <v>309966.853672622</v>
+        <v>682870.61922456801</v>
       </c>
       <c r="E111" s="1">
-        <v>-6251.2074423737504</v>
+        <v>-36636.353301855197</v>
       </c>
       <c r="F111" s="1">
-        <v>309595.37887916202</v>
+        <v>-680983.14367165405</v>
       </c>
       <c r="G111" s="1">
-        <v>-13822.957638832801</v>
+        <v>-35100.117549059898</v>
       </c>
       <c r="H111" s="1">
-        <v>715.05191821781796</v>
+        <v>1149.5957762800499</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H112">
-    <sortCondition ref="D2:D112"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H111">
+    <sortCondition ref="D2:D111"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
